--- a/data/qna/산업융합시스템공학부.xlsx
+++ b/data/qna/산업융합시스템공학부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,74 +458,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>내신 5점 중반대</t>
+          <t>산업융합시스템공학부</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>동의대 vs 울산대</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>어디가 더 나은가요</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>공학 문과 의학 모든계열에서 울산대가 더 높음</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>제발 답변 부탁드립니다유ㅠㅠㅠ</t>
+          <t>산업융합시스템공학부</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>공대아니라서 나머지는 잘 모르겠지만 공대 밀어줍니다</t>
+          <t>산업융합과가 폐과됀다는게 사실인가요</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>산업융합과가 폐과됀다는게 사실인가요</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>아니요....누가 그래요.....ㅅㅇㅅㅇㅅㅇ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>혹시 이 학과</t>
+          <t>산업융합시스템공학부</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. 8:2 정도 되는 것 같습니다
-2. 괜찮습니다 수업 열심히 들으시면 도움되는 이야기들도 많이 해주시고 교수님들도 열심히 강의 해주십니다
-3. 분위기 정말 좋습니다</t>
+          <t>4.5교과</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>이번년 산업융합 지원했는데 동의대식 4.5나오는데 최초합 할수 있나요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>최초합 진짜 가능 쌉가능 가능하면 도망쳐</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>동의대 vs 울산대</t>
+          <t>산업융합시스템공학부</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>공학 문과 의학 모든계열에서 울산대가 더 높음</t>
+          <t>수시 평균만 넘은면 붙을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>진학사 에서도 합격률86% 나왔습니다</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>디자인공학부 슨배님들</t>
+          <t>산업융합시스템공학부</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>학부생일때는 과제가 그렇게 많지는 않고 다른 과들이랑 비슷하게 ppt발표나 레포트 형식이 대부분입니다. 학년마다 분위기는 잘 모르겠으나 코로나 이후로 엠티나 모임이 딱히 없었어서 아는애들끼리 알고 지냅니다. 그래도 학년이 올라갈수록 팀플이 많아서 여러 사람들과 협업해볼 수 있습니다. 마지막으로 인간시스템디자인과(전공)에서는 학교장학금 외에 학과장학금을 따로 주는데 제품(전공)은 잘 모르겠네요!</t>
+          <t>코딩</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>신입생인데 코딩도 배우나요?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>넹넹 1학년이면 아마 1학기에 C언어 배울거에여~ ㅎㅎ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>동의대 산디vs 조선대 디자인공학</t>
+          <t>산업융합시스템공학부</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>답변 없음</t>
+          <t>동의대 산업융합시스템 vs 경성대 산업경영</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>두 개 중에 어떤 학교가 더 나을까요?? 장학금이나 학점, 배우는 과목 등등 다 통틀어서..</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>동의대 경성대 둘중에 가까운 곳으로 가세요.</t>
         </is>
       </c>
     </row>
@@ -527,182 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>합격자발표</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>안녕하십니까 언제나 너의 곁에 we-deu!
-동의대학교 입학홍보대사 서민경입니다:)
- 우선, 면접고사 준비하시느라 수고 많으셨습니다:)
-질문자님의 기량을 마음껏 뽐낼 수 있는 시간이었길 바라며, 최초합격자 및 추가합격자 발표일자를 알려드리겠습니다!
- 질문자님이 지원하신 학교생활우수자(면접)전형의 최초합격자는 12월13일 14시에 발표되며, 충원합격은 12월20일 9시부터 12월26일 18시까지 진행됩니다! 다만, 1-3차 충원합격자는 입학홈페이지에서 발표하지만, 4차 이후로는 개별로 통보되는 점 유의하시길 바랍니다.
- 수시 전형에 대한 더 많은 정보는 동의대학교 입학홈페이지에서 받아보실 수 있으며, 질문자님께 꼭 좋은 결과가 찾아가길 기원하겠습니다:)
- 위 내용에 관련하여 더 궁금한 점이 있으시다면 오픈채팅을 통해 질문해 주시면 감사하겠습니다. 1 대 1로 자세하고 친절한 상담 및 답변드리겠습니다:)
-https://open.kakao.com/o/sjaufmdd
- 동의대학교 입학홍보대사 WE-DEU는 여러분들의 빛나는 꿈을 응원합니다 :D!!</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>산업융합과가 폐과됀다는게 사실인가요</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>아니요....누가 그래요.....ㅅㅇㅅㅇㅅㅇ</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>사회복지학과 복수전공</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>학점 성적은 복수전공과 관련없습니다. 주전공에서 요구하는 전공 졸업학점이 복수전공으로 인해서 줄어들 뿐입니다. 2학년부터 신청이 가능합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>전기과 복수전공</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>가능해요~!~!! 파이티이이잉!! 아자아자!</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4.5교과</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>최초합 진짜 가능 쌉가능 가능하면 도망쳐</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>수시 평균만 넘은면 붙을 수 있을까요?</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>코딩</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>넹넹 1학년이면 아마 1학기에 C언어 배울거에여~ ㅎㅎ</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>디자인공학부 괜찮나요?</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>남녀성비는 여자 남자 거의 6:4이구 분위기도 괜찮고 수업도 괜찮아여 ! 몇개빼구..0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>산업융합시스템공학부 취업은 어떤가요...?</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>코딩이랑 하드웨어, 생산쪽 골고루 배워서 경영쪽이나 컴퓨터쪽 갈 수 있어요</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>동의대 산업융합시스템 vs 경성대 산업경영</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>동의대 경성대 둘중에 가까운 곳으로 가세요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>안녕하세요!</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>문과도 충분히 따라갈 수 있는 정도의 수학입니다. 그리고 1학년 때는 아주조금만 해도 성적 잘 나옵니다. 분위기는 인원이 많아서 뭐라고 설명해야할지 모르겠네요..뭉쳐다니는 분들도 있고 혼자 다니는 분들도 많아서요</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>디자인공학부 4.5로 추합가능할까요</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4.5면 붙을 겁니다.
-5점대도 추합되는 듯</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>올해 추합으로 들어갈수 있을까요? 판단 부탁드려요ㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>그 과 전공살려서 취업할 곳 마땅히 없음 = 전공 못살림</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
           <t>산업융합시스템공학부 어때요...? 정보가 없어요ㅠ</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>여기 지원했는데 아무리 서치해고 여기 과는 정보가 없어보여요ㅠ
+학과사이와 남여 비율이나 분위기 등등 알려주세요! 취직이 잘 되는지도 모르겠네요ㅠ
+다른학과더라도 알려주세요..!</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>빅데이터, iot, 인공지능 등 데이터를 주로 다룹니다.
 3학년이 되면 학부가 학과로 나눠집니다.
@@ -712,186 +615,92 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>합격가능성좀 봐주세요</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>동의대는 많은사람이 안전으로넣고 위에가 붙으면 나가는 사람이 많습니다. 요즘은 인원미달때문에 무난하지않을까 싶습니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>디자인 공학부 성비가 어떻게 되나요?</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>문과가 들어가도 수업 따라가는데 문제 없을까요?</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>공대로 분류된다면 교양을 자연계열로 들어야해서 운 안좋으면 수학 들어야 할 수도 있어요. 그리고 디자인&amp;lt;공학&gt;이 공학인덴 분명이 이유가 있을 거 같네요. 수학천재까진 아니여도 있어서 나쁠건 없을듯하네요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>궁금한 점이 많은데 교수님과 직접 연락할 수도 있나요??</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>학과 홈페이지 보시면 전화번호 나와있어요. 전화해보시면 됩니다. 저도 입학 전 교수님께 전화드렸었어요~</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>디자인 공학부가 산업디자인과랑 비슷한 과인가요</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>넵 거의 비슷합니다 다른점은 더 공학쪽으로 접근한다는것 밖에 없습니다. 배우는 것은 비슷한걸로 압니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>내신 4인데 추합가능할까요</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>솔까 우리학교 공대 빼고는 4 그냥 들어옴 ㅋㅋㅋ</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>학교생활</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1. 아직 학교에서 발표난게 없어서 잘 모르겠죠
-2. 학부 모임을 한번씩 하긴 했던거 같은데
-3. 효민2 살았는데 괜찮네요
-4. 수학관련 과목이 있으니</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>이 학과에 대해 궁금해요!</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.1학년때는 디자인개념이랑 인간시스템공학 두개를 배우고 2학년때 디자인이랑 공학 선택해서 세부전공으로 나뉩니다
-2.교수님이 말씀하시기로는 유명한곳은 아식스에 취업하섰다고 들었고 1~2명 빼고는 거의다 취헙했다고 들었습니다
-3 거의 반반비율입니다. 근데 코로나 때문에 a반b반으로 나눠서 수업해서 반마다는 다를 수 있어요</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>올해 신입생인데 궁금한 점이요!</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>분위기나 성비도 궁금하고 노트북이나 아이패드 활용도가 높나요? 코딩수업할 때 개인노트북가지고 수업라나요?? 다른 자잘한것들도 알려주세요!!!</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>학교 다닐땐 노트북 안써도 가능했는데 비대면으로 진행되면 필요하긴 할거같아요 1학년때는 전공도 많이 없어서 당장 노트북이나 아이패드에 대한 필요성이 낮긴 할거같아요 ㅎㅎ 성비는 남 6-7 여 3-4정도인거같습니다 비대면으로 수업 진행한다면 개인 컴퓨터로 코딩해야겠죠!</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>전과하면 친구 잘 못 사귀나요??ㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>텃세 이런건 없고 내성적이면 적응하기 힘들수도 있을거같아요ㅠㅠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>디자인공학부 교육중점</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>대학교 선택</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>인제대 산업경영공학 과 동의대 이 학과중에 어디가 낫나요?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>동의대가 좋다고 봐요 학부에서3학년때 과로 들어가면 ict교수진들이 좋고 유능들하세요 과도 괜찮구요</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>취업률</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>신설이라 4학년분들 이제 졸업하세요 ~ 시험은 다 그렇겠지만 공부 안하면 어렵습니다! 객관식 문제보단 주관식으로 많이 출제 되니까요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>동의 vs 동명</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>동의대 산업융합시스템 공학부의 산업ICT기술공학에서 인공지능 쪽을 배우는게 좋을까요? 아니면 동명대 AI학부에서 인공지능을 배우는게 좋을까요? 또 지원이나 진로로 나아가는 것을 보자면 동의대가 더 좋을까요?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>동명대는 모르겠고 산업ICT는 인공지능, 사물인터넷, 빅데이터 를 사용하기 위해서 도구로서 코딩을 사용하는 학과입니다. 저도 재학생인데 잘 모르겠어서 교수님께 여쭤봤더니 컴공이라는 순수? 학문을 현 시대의 방향(4차산업혁명)으로 재구성한 학과라고 생각하시면 될 것 같습니다. 인공지능이 중점이 되지는 않지만 충분히 배울수는 있으리라 생각합니다. 아마..</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>선배님들 정보좀 알려주세요 ㅠ</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.제가 표점이 430대인데 조금이라도 가능성 있을까요?
+2.주로 어디로 취업하는가요?
+3.제가 내성적이라 괜찮을까요 남녀비율은  어느정도 되죠?
+4.주로 정시같은 경우 추합 몇까지 도는가요?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>1. 이건 잘 모르겠네요  평균한 4~4.5등급 정도로 기억하네요 정시는
 2. 제가 교수님한테들은건 금융쪽이 제일 많고 공기업또한 생각보다 많이간다는것 그리고 나머지 루트는 공무원 정도가 있겠네요
@@ -901,198 +710,142 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>골라쥬세요</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>경성대 토목공학과
+동의대 산업경영공학부
+여자라 토목 취업하기가 어렵다고 들어서... 근데 전공 살리는 사람이 별로 없다고 듣긴 들었는데 둘중에 머가 더 낫나요?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>동의대 산업경영공학부가 더 좋을듯 합니다.</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>실기 안 보던데</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>근대 2학년 1학기인가 드로잉 실습있는데 입시 미술햇으면 아주 살짝 도움됨</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>급합니다! 1학년 2학기 휴학 가능한가요</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>휴학 해도 1학기 다시들어야한다고 하는 곳도 있던데 여기도 그런가요??</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>휴학가능해요 제가 휴학중이거든요 그리고 복학은 2학기에 하시면 돼요</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>학점 남녀성비</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>학점은 본인 노력, 해외연수도 본인이 찾아서 조건맞춰서 신청하면 잘 되는 편</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>동의대 경성대</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>경성대 산업경영공학과
+동의대 산업융합시스템공학부
+재학생 입장에서 어디를 추천하시나요 ??</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>공대 쪽은 경성대보다 동의대가 더 좋다고 봅니다.</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>대학교 고르는데...</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>저도 딱 그 세개 중에 고민하던 시절이 있었는데 조금 반갑네요 ㅋㅋㅋㅋ 저는 공대라 공대는 동의대가 낫다해서 동의대를 선택했는데 후회는 없었습니다 굳이 따지자면 인제대는 경성대와 동의대에 비해 조금 떨어지는거 같습니다 나머지 둘 중에서는 학과의 커리큘럼을 보고 자신이 배우고 싶은 부분을 어느학교가 더 중점적으로 가르쳐주는지 살펴보는 것도 좋은 방법인 것 같아요 이름이 비슷한 학과여도 수업내용은 조금씩 차이가 있거든요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>대학 다니면서 알바 어떻게 하시나요ㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1,2학년까진 가능 근데 3학년되면 바쁘기도 바쁘고 체력이 좀 후달림,,</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>면접</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1. 수능 끝나고 면접 안오는 친구들 많나요 ?
+2. 면접 분위기가 어떻고 공통질문 말고 다른 질문들 어렵나요 ㅠㅠ?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>동의대식 5.3</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>학교생활우수자로 넣었는데
+ 동의대식 5.3 면접 잘보면
+추합이라도 되나요</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>진짜 특이 케이스 아니면..?면접 화이팅 저 같은 경우 면접연습 거울보면서 입모양이나 목소리 크기, 눈 마주치는 연습 많이 했었어요</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>성비랑 군기</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>군기는무슨 그냥 좆까라하고 다니시면 됩니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>경운대 동의대</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>친구따라 대학가는거면 대부분 나중에 자퇴하거나 반수준비한다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>문닫고기가막히게들아왓습니다</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>18학번이니!?!?!?!?!!?!?!?</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>학과 분위기 성비</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>안녕하세요😊</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>기본적으로는 선택이에요
-한쪽전공이 많아지는것을 막고자 정원의 최대 70퍼까지 인원이 배정되고 70퍼가 넘을시는 성적순으로 배정돼요</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>산업융합시스템공학부</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>안녕하세요</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>대학 환산 점수로 4.7 등급 나오는데 교과로 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>네네🙂 최초합은 안되더라도 빠져서 가능하세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>산업융합시스템공학부의 전망과취업</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>산업 ict기술공학전공 커리큘럼으로 상담받았었는데 컴공 플러스 알파라고 하셨어요.
-신설이라서 그런지몰라도 열심히하면 교수님들도 도와주실려고하고 취업만보았을 때는 등수보단 학점이 중요해요. 못해도 3.5이상 나와야 취업하기좋다고 들었어요. 전망은 요즘 뜨는 4차산업을 이끄는 기술들을 배우는 과라 좋은 편인데 열심히 하기 나름이에요
-하고싶은 공부하면서 공부하기도 괜찮은 과에요</t>
         </is>
       </c>
     </row>
